--- a/data/calibrations/décomposition coûts électricité.xlsx
+++ b/data/calibrations/décomposition coûts électricité.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callonnecg\Documents\Github\ThreeME\data\calibrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80075F9E-8199-4303-981B-5087160629B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FDDE5E-AF61-4BA0-8BB1-E04BFC1CBC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{CD40A21A-F6E4-4FAF-9044-22292F8CEF96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{CD40A21A-F6E4-4FAF-9044-22292F8CEF96}"/>
   </bookViews>
   <sheets>
     <sheet name="CoutMwh" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,8 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ftn1" localSheetId="3">'coût S2'!$A$161</definedName>
@@ -43,7 +45,7 @@
     <definedName name="_ftnref2" localSheetId="2">'coût TEND'!$A$25</definedName>
     <definedName name="_ftnref2" localSheetId="0">CoutMwh!$A$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -792,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="131">
   <si>
     <t>PV Grandes Toitures</t>
   </si>
@@ -1252,14 +1254,33 @@
   <si>
     <t>cogénération UIOM</t>
   </si>
+  <si>
+    <t>hypothèse I4CE</t>
+  </si>
+  <si>
+    <t>3ME € 2020</t>
+  </si>
+  <si>
+    <t>Période 2021-2030</t>
+  </si>
+  <si>
+    <t>Période 2030- 2050</t>
+  </si>
+  <si>
+    <t>période 2021-2050</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -1533,7 +1554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1991,6 +2012,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1998,7 +2105,7 @@
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2212,6 +2319,43 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2230,27 +2374,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2267,6 +2390,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3467,11 +3593,6 @@
             <v>175.11117102622472</v>
           </cell>
         </row>
-        <row r="43">
-          <cell r="C43">
-            <v>7.5937610677679972</v>
-          </cell>
-        </row>
         <row r="172">
           <cell r="J172">
             <v>0</v>
@@ -3646,6 +3767,1058 @@
       <sheetData sheetId="36" refreshError="1"/>
       <sheetData sheetId="37" refreshError="1"/>
       <sheetData sheetId="38" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Introduction"/>
+      <sheetName val="BESOINS"/>
+      <sheetName val="SYNTHESE"/>
+      <sheetName val="JPF-SM"/>
+      <sheetName val="FIGURES"/>
+      <sheetName val="VOLUMES"/>
+      <sheetName val="BAT_NEUF"/>
+      <sheetName val="LOG_RENO"/>
+      <sheetName val="axLOG_RENO"/>
+      <sheetName val="TER_RENO"/>
+      <sheetName val="axTER"/>
+      <sheetName val="ECLA"/>
+      <sheetName val="VP"/>
+      <sheetName val="VUL"/>
+      <sheetName val="PL"/>
+      <sheetName val="BUSCAR"/>
+      <sheetName val="axBatteries"/>
+      <sheetName val="synVéhicules"/>
+      <sheetName val="IRVE"/>
+      <sheetName val="IRVG"/>
+      <sheetName val="IRVH"/>
+      <sheetName val="INFRA_FER"/>
+      <sheetName val="axFER"/>
+      <sheetName val="axCOI18"/>
+      <sheetName val="axCOI23"/>
+      <sheetName val="axART"/>
+      <sheetName val="INFRA_TCU"/>
+      <sheetName val="synTCU"/>
+      <sheetName val="axMétroTram"/>
+      <sheetName val="axRER"/>
+      <sheetName val="axIDF2"/>
+      <sheetName val="axGPE 2023"/>
+      <sheetName val="axTCU-Province"/>
+      <sheetName val="axTram"/>
+      <sheetName val="axBus"/>
+      <sheetName val="CYCLABLES"/>
+      <sheetName val="axVélo"/>
+      <sheetName val="FLUVIAL"/>
+      <sheetName val="ROUTES"/>
+      <sheetName val="PRODELEC"/>
+      <sheetName val="axREN"/>
+      <sheetName val="RES"/>
+      <sheetName val="axRES"/>
+      <sheetName val="PRODCHA"/>
+      <sheetName val="NUCLEAIRE"/>
+      <sheetName val="axNUC"/>
+      <sheetName val="RCU"/>
+      <sheetName val="axRC"/>
+      <sheetName val="BIOMETHANE"/>
+      <sheetName val="PTG"/>
+      <sheetName val="BIOCARB"/>
+      <sheetName val="CSC"/>
+      <sheetName val="axCCS"/>
+      <sheetName val="axGénéral"/>
+      <sheetName val="axIndices"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39">
+        <row r="247">
+          <cell r="N247">
+            <v>740.67857917962817</v>
+          </cell>
+          <cell r="JX247">
+            <v>271.65603415564294</v>
+          </cell>
+          <cell r="JY247">
+            <v>-9.1239636976007201</v>
+          </cell>
+          <cell r="JZ247">
+            <v>0</v>
+          </cell>
+          <cell r="KA247">
+            <v>0</v>
+          </cell>
+          <cell r="KB247">
+            <v>0</v>
+          </cell>
+          <cell r="KC247">
+            <v>0</v>
+          </cell>
+          <cell r="KD247">
+            <v>0</v>
+          </cell>
+          <cell r="KE247">
+            <v>0</v>
+          </cell>
+          <cell r="KF247">
+            <v>0</v>
+          </cell>
+          <cell r="KG247">
+            <v>0</v>
+          </cell>
+          <cell r="KH247">
+            <v>0</v>
+          </cell>
+          <cell r="KI247">
+            <v>0</v>
+          </cell>
+          <cell r="KJ247">
+            <v>0</v>
+          </cell>
+          <cell r="KK247">
+            <v>0</v>
+          </cell>
+          <cell r="KL247">
+            <v>0</v>
+          </cell>
+          <cell r="KM247">
+            <v>0</v>
+          </cell>
+          <cell r="KN247">
+            <v>0</v>
+          </cell>
+          <cell r="KO247">
+            <v>0</v>
+          </cell>
+          <cell r="KP247">
+            <v>0</v>
+          </cell>
+          <cell r="KQ247">
+            <v>0</v>
+          </cell>
+          <cell r="KR247">
+            <v>0</v>
+          </cell>
+          <cell r="KS247">
+            <v>0</v>
+          </cell>
+          <cell r="KT247">
+            <v>0</v>
+          </cell>
+          <cell r="KU247">
+            <v>0</v>
+          </cell>
+          <cell r="KV247">
+            <v>0</v>
+          </cell>
+          <cell r="KW247">
+            <v>0</v>
+          </cell>
+          <cell r="KX247">
+            <v>0</v>
+          </cell>
+          <cell r="KY247">
+            <v>0</v>
+          </cell>
+          <cell r="KZ247">
+            <v>0</v>
+          </cell>
+          <cell r="LA247">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="619">
+          <cell r="N619">
+            <v>1839.3681712083605</v>
+          </cell>
+          <cell r="JX619">
+            <v>1764.3441160211848</v>
+          </cell>
+          <cell r="JY619">
+            <v>3890.6034906478731</v>
+          </cell>
+          <cell r="JZ619">
+            <v>2635.6538809642043</v>
+          </cell>
+          <cell r="KA619">
+            <v>2378.1502575196037</v>
+          </cell>
+          <cell r="KB619">
+            <v>2562.3267503353768</v>
+          </cell>
+          <cell r="KC619">
+            <v>2636.0183576427271</v>
+          </cell>
+          <cell r="KD619">
+            <v>2819.35189401561</v>
+          </cell>
+          <cell r="KE619">
+            <v>2950.8559826180053</v>
+          </cell>
+          <cell r="KF619">
+            <v>2983.7487830019195</v>
+          </cell>
+          <cell r="KG619">
+            <v>2925.4843887459215</v>
+          </cell>
+          <cell r="KH619">
+            <v>3307.0349948340681</v>
+          </cell>
+          <cell r="KI619">
+            <v>3198.9657666433882</v>
+          </cell>
+          <cell r="KJ619">
+            <v>3136.869770541753</v>
+          </cell>
+          <cell r="KK619">
+            <v>3063.8760100735667</v>
+          </cell>
+          <cell r="KL619">
+            <v>2982.4898757904348</v>
+          </cell>
+          <cell r="KM619">
+            <v>3158.8134805225245</v>
+          </cell>
+          <cell r="KN619">
+            <v>3135.1157555557675</v>
+          </cell>
+          <cell r="KO619">
+            <v>3119.7693324277006</v>
+          </cell>
+          <cell r="KP619">
+            <v>3094.9079014670288</v>
+          </cell>
+          <cell r="KQ619">
+            <v>3061.8594565726908</v>
+          </cell>
+          <cell r="KR619">
+            <v>3009.6167081081207</v>
+          </cell>
+          <cell r="KS619">
+            <v>2939.0010955984344</v>
+          </cell>
+          <cell r="KT619">
+            <v>2874.6831861146447</v>
+          </cell>
+          <cell r="KU619">
+            <v>2919.4250642488828</v>
+          </cell>
+          <cell r="KV619">
+            <v>3141.2693039983351</v>
+          </cell>
+          <cell r="KW619">
+            <v>3442.5467458265966</v>
+          </cell>
+          <cell r="KX619">
+            <v>3650.9604493403863</v>
+          </cell>
+          <cell r="KY619">
+            <v>3699.1113015038595</v>
+          </cell>
+          <cell r="KZ619">
+            <v>3681.2047251891781</v>
+          </cell>
+          <cell r="LA619">
+            <v>3675.0721154011726</v>
+          </cell>
+        </row>
+        <row r="1188">
+          <cell r="N1188">
+            <v>1235.088219144578</v>
+          </cell>
+          <cell r="JX1188">
+            <v>720.77764126622719</v>
+          </cell>
+          <cell r="JY1188">
+            <v>1367.5917939137671</v>
+          </cell>
+          <cell r="JZ1188">
+            <v>1839.6847931694901</v>
+          </cell>
+          <cell r="KA1188">
+            <v>2406.9284076398385</v>
+          </cell>
+          <cell r="KB1188">
+            <v>893.83894992872933</v>
+          </cell>
+          <cell r="KC1188">
+            <v>417.48992753345897</v>
+          </cell>
+          <cell r="KD1188">
+            <v>867.47772072399584</v>
+          </cell>
+          <cell r="KE1188">
+            <v>0</v>
+          </cell>
+          <cell r="KF1188">
+            <v>0</v>
+          </cell>
+          <cell r="KG1188">
+            <v>0</v>
+          </cell>
+          <cell r="KH1188">
+            <v>0</v>
+          </cell>
+          <cell r="KI1188">
+            <v>0</v>
+          </cell>
+          <cell r="KJ1188">
+            <v>0</v>
+          </cell>
+          <cell r="KK1188">
+            <v>0</v>
+          </cell>
+          <cell r="KL1188">
+            <v>0</v>
+          </cell>
+          <cell r="KM1188">
+            <v>0</v>
+          </cell>
+          <cell r="KN1188">
+            <v>0</v>
+          </cell>
+          <cell r="KO1188">
+            <v>0</v>
+          </cell>
+          <cell r="KP1188">
+            <v>0.18812575790913699</v>
+          </cell>
+          <cell r="KQ1188">
+            <v>1.4268350862423587</v>
+          </cell>
+          <cell r="KR1188">
+            <v>7.1298803225837322</v>
+          </cell>
+          <cell r="KS1188">
+            <v>26.976718271134878</v>
+          </cell>
+          <cell r="KT1188">
+            <v>79.230902462427409</v>
+          </cell>
+          <cell r="KU1188">
+            <v>190.4148360524629</v>
+          </cell>
+          <cell r="KV1188">
+            <v>378.9616219848657</v>
+          </cell>
+          <cell r="KW1188">
+            <v>621.97092220967943</v>
+          </cell>
+          <cell r="KX1188">
+            <v>842.27917742487875</v>
+          </cell>
+          <cell r="KY1188">
+            <v>916.78390341955969</v>
+          </cell>
+          <cell r="KZ1188">
+            <v>807.50968250327651</v>
+          </cell>
+          <cell r="LA1188">
+            <v>463.65697639934558</v>
+          </cell>
+        </row>
+        <row r="1734">
+          <cell r="N1734">
+            <v>1411.2719429857464</v>
+          </cell>
+        </row>
+        <row r="1735">
+          <cell r="N1735">
+            <v>820.71192798199547</v>
+          </cell>
+        </row>
+        <row r="1736">
+          <cell r="N1736">
+            <v>404.479744936234</v>
+          </cell>
+        </row>
+        <row r="1796">
+          <cell r="JX1796">
+            <v>2420.8115832784561</v>
+          </cell>
+          <cell r="JY1796">
+            <v>2817.0143949374183</v>
+          </cell>
+          <cell r="JZ1796">
+            <v>2583.8217193667501</v>
+          </cell>
+          <cell r="KA1796">
+            <v>2475.9406567952492</v>
+          </cell>
+          <cell r="KB1796">
+            <v>2371.5715240365316</v>
+          </cell>
+          <cell r="KC1796">
+            <v>2265.8870152628056</v>
+          </cell>
+          <cell r="KD1796">
+            <v>2163.0832757852581</v>
+          </cell>
+          <cell r="KE1796">
+            <v>2064.5806340718009</v>
+          </cell>
+          <cell r="KF1796">
+            <v>1970.3307411301353</v>
+          </cell>
+          <cell r="KG1796">
+            <v>1893.3198547847046</v>
+          </cell>
+          <cell r="KH1796">
+            <v>2849.9921370426346</v>
+          </cell>
+          <cell r="KI1796">
+            <v>2847.3224386018192</v>
+          </cell>
+          <cell r="KJ1796">
+            <v>2986.9625898447102</v>
+          </cell>
+          <cell r="KK1796">
+            <v>3189.9092326250789</v>
+          </cell>
+          <cell r="KL1796">
+            <v>3329.6719398214809</v>
+          </cell>
+          <cell r="KM1796">
+            <v>3295.2117477928523</v>
+          </cell>
+          <cell r="KN1796">
+            <v>3138.8486699587183</v>
+          </cell>
+          <cell r="KO1796">
+            <v>2983.520184520843</v>
+          </cell>
+          <cell r="KP1796">
+            <v>2860.4973523422987</v>
+          </cell>
+          <cell r="KQ1796">
+            <v>2781.1726163716471</v>
+          </cell>
+          <cell r="KR1796">
+            <v>3007.1949345970647</v>
+          </cell>
+          <cell r="KS1796">
+            <v>3049.8716357452467</v>
+          </cell>
+          <cell r="KT1796">
+            <v>3133.244165948046</v>
+          </cell>
+          <cell r="KU1796">
+            <v>3288.4549935239088</v>
+          </cell>
+          <cell r="KV1796">
+            <v>3469.043695989903</v>
+          </cell>
+          <cell r="KW1796">
+            <v>3621.9520969647492</v>
+          </cell>
+          <cell r="KX1796">
+            <v>3696.9217771454055</v>
+          </cell>
+          <cell r="KY1796">
+            <v>3696.4345649076727</v>
+          </cell>
+          <cell r="KZ1796">
+            <v>3672.0293538170167</v>
+          </cell>
+          <cell r="LA1796">
+            <v>3626.9615298810877</v>
+          </cell>
+        </row>
+        <row r="2163">
+          <cell r="N2163">
+            <v>172.81430065449953</v>
+          </cell>
+          <cell r="JX2163">
+            <v>0</v>
+          </cell>
+          <cell r="JY2163">
+            <v>0</v>
+          </cell>
+          <cell r="JZ2163">
+            <v>0</v>
+          </cell>
+          <cell r="KA2163">
+            <v>0</v>
+          </cell>
+          <cell r="KB2163">
+            <v>0</v>
+          </cell>
+          <cell r="KC2163">
+            <v>0</v>
+          </cell>
+          <cell r="KD2163">
+            <v>0</v>
+          </cell>
+          <cell r="KE2163">
+            <v>0</v>
+          </cell>
+          <cell r="KF2163">
+            <v>0</v>
+          </cell>
+          <cell r="KG2163">
+            <v>0</v>
+          </cell>
+          <cell r="KH2163">
+            <v>0</v>
+          </cell>
+          <cell r="KI2163">
+            <v>0</v>
+          </cell>
+          <cell r="KJ2163">
+            <v>0</v>
+          </cell>
+          <cell r="KK2163">
+            <v>0</v>
+          </cell>
+          <cell r="KL2163">
+            <v>0</v>
+          </cell>
+          <cell r="KM2163">
+            <v>0</v>
+          </cell>
+          <cell r="KN2163">
+            <v>0</v>
+          </cell>
+          <cell r="KO2163">
+            <v>0</v>
+          </cell>
+          <cell r="KP2163">
+            <v>0</v>
+          </cell>
+          <cell r="KQ2163">
+            <v>0</v>
+          </cell>
+          <cell r="KR2163">
+            <v>0</v>
+          </cell>
+          <cell r="KS2163">
+            <v>0</v>
+          </cell>
+          <cell r="KT2163">
+            <v>0</v>
+          </cell>
+          <cell r="KU2163">
+            <v>0</v>
+          </cell>
+          <cell r="KV2163">
+            <v>0</v>
+          </cell>
+          <cell r="KW2163">
+            <v>0</v>
+          </cell>
+          <cell r="KX2163">
+            <v>0</v>
+          </cell>
+          <cell r="KY2163">
+            <v>0</v>
+          </cell>
+          <cell r="KZ2163">
+            <v>0</v>
+          </cell>
+          <cell r="LA2163">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2226">
+          <cell r="N2226">
+            <v>376.49738567366785</v>
+          </cell>
+          <cell r="JX2226">
+            <v>0</v>
+          </cell>
+          <cell r="JY2226">
+            <v>0</v>
+          </cell>
+          <cell r="JZ2226">
+            <v>0</v>
+          </cell>
+          <cell r="KA2226">
+            <v>0</v>
+          </cell>
+          <cell r="KB2226">
+            <v>0</v>
+          </cell>
+          <cell r="KC2226">
+            <v>0</v>
+          </cell>
+          <cell r="KD2226">
+            <v>0</v>
+          </cell>
+          <cell r="KE2226">
+            <v>0</v>
+          </cell>
+          <cell r="KF2226">
+            <v>0</v>
+          </cell>
+          <cell r="KG2226">
+            <v>0</v>
+          </cell>
+          <cell r="KH2226">
+            <v>0</v>
+          </cell>
+          <cell r="KI2226">
+            <v>0</v>
+          </cell>
+          <cell r="KJ2226">
+            <v>0</v>
+          </cell>
+          <cell r="KK2226">
+            <v>0</v>
+          </cell>
+          <cell r="KL2226">
+            <v>0</v>
+          </cell>
+          <cell r="KM2226">
+            <v>0</v>
+          </cell>
+          <cell r="KN2226">
+            <v>0</v>
+          </cell>
+          <cell r="KO2226">
+            <v>0</v>
+          </cell>
+          <cell r="KP2226">
+            <v>0</v>
+          </cell>
+          <cell r="KQ2226">
+            <v>0</v>
+          </cell>
+          <cell r="KR2226">
+            <v>0</v>
+          </cell>
+          <cell r="KS2226">
+            <v>0</v>
+          </cell>
+          <cell r="KT2226">
+            <v>0</v>
+          </cell>
+          <cell r="KU2226">
+            <v>0</v>
+          </cell>
+          <cell r="KV2226">
+            <v>0</v>
+          </cell>
+          <cell r="KW2226">
+            <v>0</v>
+          </cell>
+          <cell r="KX2226">
+            <v>0</v>
+          </cell>
+          <cell r="KY2226">
+            <v>0</v>
+          </cell>
+          <cell r="KZ2226">
+            <v>0</v>
+          </cell>
+          <cell r="LA2226">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44">
+        <row r="316">
+          <cell r="JW316">
+            <v>7280.6399999999994</v>
+          </cell>
+        </row>
+        <row r="612">
+          <cell r="JX612">
+            <v>4079.0135640984909</v>
+          </cell>
+          <cell r="JY612">
+            <v>4463.6159999999991</v>
+          </cell>
+          <cell r="JZ612">
+            <v>4592.111219512195</v>
+          </cell>
+          <cell r="KA612">
+            <v>4193.5354146341451</v>
+          </cell>
+          <cell r="KB612">
+            <v>3911.3092682926817</v>
+          </cell>
+          <cell r="KC612">
+            <v>4040.6072195121947</v>
+          </cell>
+          <cell r="KD612">
+            <v>4310.3016585365849</v>
+          </cell>
+          <cell r="KE612">
+            <v>4814.3601951219507</v>
+          </cell>
+          <cell r="KF612">
+            <v>5347.0899512195119</v>
+          </cell>
+          <cell r="KG612">
+            <v>5384.0850731707314</v>
+          </cell>
+          <cell r="KH612">
+            <v>5049.0942439024393</v>
+          </cell>
+          <cell r="KI612">
+            <v>4524.3184390243896</v>
+          </cell>
+          <cell r="KJ612">
+            <v>4027.903663789868</v>
+          </cell>
+          <cell r="KK612">
+            <v>3766.4505996247649</v>
+          </cell>
+          <cell r="KL612">
+            <v>3431.9378611632264</v>
+          </cell>
+          <cell r="KM612">
+            <v>3004.2201816135084</v>
+          </cell>
+          <cell r="KN612">
+            <v>2461.1118709193242</v>
+          </cell>
+          <cell r="KO612">
+            <v>2079.470192870544</v>
+          </cell>
+          <cell r="KP612">
+            <v>1832.0098221388366</v>
+          </cell>
+          <cell r="KQ612">
+            <v>1673.98942739212</v>
+          </cell>
+          <cell r="KR612">
+            <v>1421.6826956848029</v>
+          </cell>
+          <cell r="KS612">
+            <v>998.70892908067526</v>
+          </cell>
+          <cell r="KT612">
+            <v>651.61500337711061</v>
+          </cell>
+          <cell r="KU612">
+            <v>271.96537035647276</v>
+          </cell>
+          <cell r="KV612">
+            <v>98.418407504690407</v>
+          </cell>
+          <cell r="KW612">
+            <v>107.93469118198874</v>
+          </cell>
+          <cell r="KX612">
+            <v>150.25711069418387</v>
+          </cell>
+          <cell r="KY612">
+            <v>300.51422138836773</v>
+          </cell>
+          <cell r="KZ612">
+            <v>375.64277673545962</v>
+          </cell>
+          <cell r="LA612">
+            <v>300.51422138836773</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Cibles THREEME"/>
+      <sheetName val="Cibles THREEME AMS"/>
+      <sheetName val="Cibles ThreeME v2 "/>
+      <sheetName val="Cibles ThreeME v2 AMS"/>
+      <sheetName val="Cibles ThreeME v3"/>
+      <sheetName val="Cibles ThreeME v3 AMS"/>
+      <sheetName val="brouillon"/>
+      <sheetName val="Bilan_enerdata_2015"/>
+      <sheetName val="Bilan 2015"/>
+      <sheetName val="Bilan 2020"/>
+      <sheetName val="Bilan 2020 test"/>
+      <sheetName val="Bilan 2023"/>
+      <sheetName val="Bilan 2025"/>
+      <sheetName val="Bilan 2028"/>
+      <sheetName val="Bilan 2030"/>
+      <sheetName val="Bilan 2033"/>
+      <sheetName val="Bilan 2035"/>
+      <sheetName val="Bilan 2038"/>
+      <sheetName val="Bilan 2040"/>
+      <sheetName val="Bilan 2045"/>
+      <sheetName val="Bilan 2050"/>
+      <sheetName val="Bilan 2023 AMS"/>
+      <sheetName val="Bilan 2025 AMS"/>
+      <sheetName val="Bilan 2028 AMS"/>
+      <sheetName val="Bilan 2030 AMS"/>
+      <sheetName val="Bilan 2033 AMS"/>
+      <sheetName val="Bilan 2035 AMS"/>
+      <sheetName val="Bilan 2038 AMS"/>
+      <sheetName val="Bilan 2040 AMS"/>
+      <sheetName val="Bilan 2045 AMS"/>
+      <sheetName val="Bilan 2050 AMS"/>
+      <sheetName val="Bilan_E_AME_Met_2020"/>
+      <sheetName val="Bilan_E_KP_AME_2020"/>
+      <sheetName val="Bilan_E_KP_AME_2023"/>
+      <sheetName val="Bilan_E_KP_AME_2025"/>
+      <sheetName val="Bilan_E_KP_AME_2028"/>
+      <sheetName val="Bilan_E_KP_AME_2030"/>
+      <sheetName val="Bilan_E_KP_AME_2033"/>
+      <sheetName val="Bilan_E_KP_AME_2035"/>
+      <sheetName val="Bilan_E_KP_AME_2038"/>
+      <sheetName val="Bilan_E_KP_AME_2040"/>
+      <sheetName val="Bilan_E_KP_AME_2043"/>
+      <sheetName val="Bilan_E_KP_AME_2045"/>
+      <sheetName val="Bilan_E_KP_AME_2050"/>
+      <sheetName val="Bilan_E_KP_AME"/>
+      <sheetName val="Bilans_E_AMS_KP"/>
+      <sheetName val="Bilans_E_AMS_KP_2023"/>
+      <sheetName val="Bilans_E_AMS_KP_2025"/>
+      <sheetName val="Bilans_E_AMS_KP_2028"/>
+      <sheetName val="Bilans_E_AMS_KP_2030"/>
+      <sheetName val="Bilans_E_AMS_KP_2033"/>
+      <sheetName val="Bilans_E_AMS_KP_2035"/>
+      <sheetName val="Bilans_E_AMS_KP_2038"/>
+      <sheetName val="Bilans_E_AMS_KP_2040"/>
+      <sheetName val="Bilans_E_AMS_KP_2043"/>
+      <sheetName val="Bilans_E_AMS_KP_2045"/>
+      <sheetName val="Bilans_E_AMS_KP_2050"/>
+      <sheetName val="Bilan_E_KP_AMS_2023"/>
+      <sheetName val="Bilan_E_KP_AMS_2025"/>
+      <sheetName val="Bilan_E_KP_AMS_2028"/>
+      <sheetName val="Bilan_E_KP_AMS_2030"/>
+      <sheetName val="Bilan_E_KP_AMS_2033"/>
+      <sheetName val="Bilan_E_KP_AMS_2035"/>
+      <sheetName val="Bilan_E_KP_AMS_2038"/>
+      <sheetName val="Bilan_E_KP_AMS_2040"/>
+      <sheetName val="Bilan_E_KP_AMS_2043"/>
+      <sheetName val="Bilan_E_KP_AMS_2045"/>
+      <sheetName val="Bilan_E_KP_AMS_2050"/>
+      <sheetName val="Bilan_E_KP_AMS"/>
+      <sheetName val="P1_G4-G5"/>
+      <sheetName val="P1_G6"/>
+      <sheetName val="bilan énergie format SDS"/>
+      <sheetName val="Demande Format Medpro"/>
+      <sheetName val="Format demande MedPro_2015"/>
+      <sheetName val="Corrections Bilan enerdata"/>
+      <sheetName val="Modèle tertiaire_2015"/>
+      <sheetName val="Modèle tertiaire_2020"/>
+      <sheetName val="Modèle tertiaire_2025"/>
+      <sheetName val="Modèle tertiaire_2030"/>
+      <sheetName val="Modèle tertiaire_2050"/>
+      <sheetName val="Modèle résidentiel ch_2015"/>
+      <sheetName val="Modèle résidentiel ch_2020"/>
+      <sheetName val="Modèle résidentiel ch_2025"/>
+      <sheetName val="Modèle résidentiel ch_2030"/>
+      <sheetName val="Modèle résidentiel ch_2050"/>
+      <sheetName val="Modèle résidentiel hch_2015"/>
+      <sheetName val="Modèle résidentiel hch_2020"/>
+      <sheetName val="Modèle résidentiel hch_2025"/>
+      <sheetName val="Modèle résidentiel hch_2030"/>
+      <sheetName val="Modèle résidentiel hch_2050"/>
+      <sheetName val="Mix énergie_2015"/>
+      <sheetName val="Bilans_E_AMS_Kyoto_2050"/>
+      <sheetName val="Bilan 2050 AMS_ancien"/>
+      <sheetName val="Bilans_E_AMS_Kyoto"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="12">
+          <cell r="N12">
+            <v>9.9244961880322116</v>
+          </cell>
+          <cell r="S12">
+            <v>11.911796565870185</v>
+          </cell>
+          <cell r="X12">
+            <v>13.031577807987137</v>
+          </cell>
+          <cell r="AC12">
+            <v>17.347880306926783</v>
+          </cell>
+          <cell r="AH12">
+            <v>18.593158048802927</v>
+          </cell>
+          <cell r="AM12">
+            <v>19.881539784064241</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="12">
+          <cell r="I12">
+            <v>4.9342958979932492</v>
+          </cell>
+          <cell r="N12">
+            <v>7.8452535058930799</v>
+          </cell>
+          <cell r="S12">
+            <v>7.0043133315992261</v>
+          </cell>
+          <cell r="X12">
+            <v>8.5549511918254506</v>
+          </cell>
+          <cell r="AC12">
+            <v>10.822944189148718</v>
+          </cell>
+          <cell r="AH12">
+            <v>11.328159254120227</v>
+          </cell>
+          <cell r="AM12">
+            <v>11.837166275823565</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+      <sheetData sheetId="85"/>
+      <sheetData sheetId="86"/>
+      <sheetData sheetId="87"/>
+      <sheetData sheetId="88"/>
+      <sheetData sheetId="89"/>
+      <sheetData sheetId="90"/>
+      <sheetData sheetId="91"/>
+      <sheetData sheetId="92"/>
+      <sheetData sheetId="93"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3952,7 +5125,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3987,7 +5160,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4020,7 +5193,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -4053,7 +5226,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="113" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -4088,7 +5261,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -4121,7 +5294,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -4154,7 +5327,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="110" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -4189,7 +5362,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -4222,7 +5395,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -4255,7 +5428,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="113" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -4290,7 +5463,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="93"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -4323,7 +5496,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="94"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
@@ -4356,7 +5529,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="110" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -4391,7 +5564,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
@@ -4424,7 +5597,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
@@ -4562,7 +5735,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="110" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -4597,7 +5770,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="90"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
@@ -4630,7 +5803,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="90"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="12" t="s">
         <v>3</v>
       </c>
@@ -4663,7 +5836,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="108" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -4706,7 +5879,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="109" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4749,7 +5922,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="100"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
@@ -4790,7 +5963,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="100"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
@@ -4831,7 +6004,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="100"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
@@ -4887,7 +6060,7 @@
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="108" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4930,7 +6103,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="109" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4973,7 +6146,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="12" t="s">
         <v>18</v>
       </c>
@@ -5014,7 +6187,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="6" t="s">
         <v>19</v>
       </c>
@@ -5055,7 +6228,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="100"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="6" t="s">
         <v>21</v>
       </c>
@@ -5117,7 +6290,7 @@
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="104" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -5152,7 +6325,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="96"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
@@ -5185,7 +6358,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="96"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
@@ -5218,7 +6391,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="97"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="6" t="s">
         <v>3</v>
       </c>
@@ -5251,7 +6424,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="107" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -5286,7 +6459,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="96"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="6" t="s">
         <v>30</v>
       </c>
@@ -5319,7 +6492,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="96"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="6" t="s">
         <v>33</v>
       </c>
@@ -5352,7 +6525,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="97"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="6" t="s">
         <v>3</v>
       </c>
@@ -5414,18 +6587,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5441,7 +6614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6665,127 +7840,127 @@
       <c r="B9" s="69"/>
       <c r="C9" s="85">
         <f>Kexo_TEND!C9</f>
-        <v>9401.0762018967798</v>
+        <v>6108.6583217156422</v>
       </c>
       <c r="D9" s="85">
         <f>Kexo_TEND!D9</f>
-        <v>9401.0762018967798</v>
+        <v>7344.2319135292892</v>
       </c>
       <c r="E9" s="85">
         <f>Kexo_TEND!E9</f>
-        <v>9401.0762018967798</v>
+        <v>8579.8055053429362</v>
       </c>
       <c r="F9" s="85">
         <f>Kexo_TEND!F9</f>
-        <v>9401.0762018967798</v>
+        <v>9815.3790971565832</v>
       </c>
       <c r="G9" s="69">
         <f t="shared" si="6"/>
-        <v>9401.0762018967798</v>
+        <v>9763.9014687261079</v>
       </c>
       <c r="H9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 AMS'!$N$12*20</f>
+        <v>9712.4238402956325</v>
       </c>
       <c r="I9" s="69">
-        <f t="shared" si="7"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="I9" si="12">H9+($M9-$H9)/5</f>
+        <v>9504.2070531404752</v>
       </c>
       <c r="J9" s="69">
-        <f t="shared" si="7"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="J9" si="13">I9+($M9-$H9)/5</f>
+        <v>9295.9902659853178</v>
       </c>
       <c r="K9" s="69">
-        <f t="shared" si="7"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="K9" si="14">J9+($M9-$H9)/5</f>
+        <v>9087.7734788301605</v>
       </c>
       <c r="L9" s="69">
-        <f t="shared" si="7"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="L9" si="15">K9+($M9-$H9)/5</f>
+        <v>8879.5566916750031</v>
       </c>
       <c r="M9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 AMS'!S$12*20</f>
+        <v>8671.3399045198421</v>
       </c>
       <c r="N9" s="69">
-        <f t="shared" si="8"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="N9" si="16">M9+($R9-$M9)/5</f>
+        <v>9055.277838711856</v>
       </c>
       <c r="O9" s="69">
-        <f t="shared" si="8"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="O9" si="17">N9+($R9-$M9)/5</f>
+        <v>9439.2157729038699</v>
       </c>
       <c r="P9" s="69">
-        <f t="shared" si="8"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="P9" si="18">O9+($R9-$M9)/5</f>
+        <v>9823.1537070958839</v>
       </c>
       <c r="Q9" s="69">
-        <f t="shared" si="8"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="Q9" si="19">P9+($R9-$M9)/5</f>
+        <v>10207.091641287898</v>
       </c>
       <c r="R9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 AMS'!X$12*20</f>
+        <v>10591.029575479908</v>
       </c>
       <c r="S9" s="69">
-        <f t="shared" si="9"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="S9" si="20">R9+($W9-$R9)/5</f>
+        <v>11152.58464161715</v>
       </c>
       <c r="T9" s="69">
-        <f t="shared" si="9"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="T9" si="21">S9+($W9-$R9)/5</f>
+        <v>11714.139707754392</v>
       </c>
       <c r="U9" s="69">
-        <f t="shared" si="9"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="U9" si="22">T9+($W9-$R9)/5</f>
+        <v>12275.694773891633</v>
       </c>
       <c r="V9" s="69">
-        <f t="shared" si="9"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="V9" si="23">U9+($W9-$R9)/5</f>
+        <v>12837.249840028875</v>
       </c>
       <c r="W9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 AMS'!AC$12*20</f>
+        <v>13398.804906166113</v>
       </c>
       <c r="X9" s="69">
-        <f t="shared" si="10"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="X9" si="24">W9+($AB9-$W9)/5</f>
+        <v>13523.896156253059</v>
       </c>
       <c r="Y9" s="69">
-        <f t="shared" si="10"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="Y9" si="25">X9+($AB9-$W9)/5</f>
+        <v>13648.987406340004</v>
       </c>
       <c r="Z9" s="69">
-        <f t="shared" si="10"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="Z9" si="26">Y9+($AB9-$W9)/5</f>
+        <v>13774.078656426949</v>
       </c>
       <c r="AA9" s="69">
-        <f t="shared" si="10"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AA9" si="27">Z9+($AB9-$W9)/5</f>
+        <v>13899.169906513895</v>
       </c>
       <c r="AB9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 AMS'!AH$12*20</f>
+        <v>14024.26115660084</v>
       </c>
       <c r="AC9" s="69">
-        <f t="shared" si="11"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AC9" si="28">AB9+($AG9-$AB9)/5</f>
+        <v>14150.291295174586</v>
       </c>
       <c r="AD9" s="69">
-        <f t="shared" si="11"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AD9" si="29">AC9+($AG9-$AB9)/5</f>
+        <v>14276.321433748331</v>
       </c>
       <c r="AE9" s="69">
-        <f t="shared" si="11"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AE9" si="30">AD9+($AG9-$AB9)/5</f>
+        <v>14402.351572322077</v>
       </c>
       <c r="AF9" s="69">
-        <f t="shared" si="11"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AF9" si="31">AE9+($AG9-$AB9)/5</f>
+        <v>14528.381710895823</v>
       </c>
       <c r="AG9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 AMS'!AM$12*20</f>
+        <v>14654.411849469572</v>
       </c>
       <c r="AH9" s="41"/>
       <c r="AI9" s="41"/>
@@ -7362,7 +8537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BE20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X9" sqref="D9:X9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8558,124 +9735,124 @@
       <c r="B9" s="69"/>
       <c r="C9" s="69"/>
       <c r="D9" s="69">
-        <f>INVexo_TEND!D9</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!D9-Kexo_S2!C9*(1-1/20)&gt;0.5,Kexo_S2!D9-Kexo_S2!C9*(1-1/20),0.5)</f>
+        <v>1541.0065078994294</v>
       </c>
       <c r="E9" s="69">
-        <f>INVexo_TEND!E9</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!E9-Kexo_S2!D9*(1-1/20)&gt;0.5,Kexo_S2!E9-Kexo_S2!D9*(1-1/20),0.5)</f>
+        <v>1602.7851874901116</v>
       </c>
       <c r="F9" s="69">
-        <f>INVexo_TEND!F9</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!F9-Kexo_S2!E9*(1-1/20)&gt;0.5,Kexo_S2!F9-Kexo_S2!E9*(1-1/20),0.5)</f>
+        <v>1664.5638670807939</v>
       </c>
       <c r="G9" s="69">
-        <f>Kexo_S2!G9-Kexo_S2!F9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!G9-Kexo_S2!F9*(1-1/20)&gt;0.5,Kexo_S2!G9-Kexo_S2!F9*(1-1/20),0.5)</f>
+        <v>439.29132642735385</v>
       </c>
       <c r="H9" s="69">
-        <f>Kexo_S2!H9-Kexo_S2!G9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!H9-Kexo_S2!G9*(1-1/20)&gt;0.5,Kexo_S2!H9-Kexo_S2!G9*(1-1/20),0.5)</f>
+        <v>436.71744500583009</v>
       </c>
       <c r="I9" s="69">
-        <f>Kexo_S2!I9-Kexo_S2!H9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!I9-Kexo_S2!H9*(1-1/20)&gt;0.5,Kexo_S2!I9-Kexo_S2!H9*(1-1/20),0.5)</f>
+        <v>277.40440485962426</v>
       </c>
       <c r="J9" s="69">
-        <f>Kexo_S2!J9-Kexo_S2!I9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!J9-Kexo_S2!I9*(1-1/20)&gt;0.5,Kexo_S2!J9-Kexo_S2!I9*(1-1/20),0.5)</f>
+        <v>266.99356550186712</v>
       </c>
       <c r="K9" s="69">
-        <f>Kexo_S2!K9-Kexo_S2!J9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!K9-Kexo_S2!J9*(1-1/20)&gt;0.5,Kexo_S2!K9-Kexo_S2!J9*(1-1/20),0.5)</f>
+        <v>256.58272614410816</v>
       </c>
       <c r="L9" s="69">
-        <f>Kexo_S2!L9-Kexo_S2!K9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!L9-Kexo_S2!K9*(1-1/20)&gt;0.5,Kexo_S2!L9-Kexo_S2!K9*(1-1/20),0.5)</f>
+        <v>246.17188678635102</v>
       </c>
       <c r="M9" s="69">
-        <f>Kexo_S2!M9-Kexo_S2!L9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!M9-Kexo_S2!L9*(1-1/20)&gt;0.5,Kexo_S2!M9-Kexo_S2!L9*(1-1/20),0.5)</f>
+        <v>235.76104742859025</v>
       </c>
       <c r="N9" s="69">
-        <f>Kexo_S2!N9-Kexo_S2!M9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!N9-Kexo_S2!M9*(1-1/20)&gt;0.5,Kexo_S2!N9-Kexo_S2!M9*(1-1/20),0.5)</f>
+        <v>817.50492941800621</v>
       </c>
       <c r="O9" s="69">
-        <f>Kexo_S2!O9-Kexo_S2!N9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!O9-Kexo_S2!N9*(1-1/20)&gt;0.5,Kexo_S2!O9-Kexo_S2!N9*(1-1/20),0.5)</f>
+        <v>836.701826127608</v>
       </c>
       <c r="P9" s="69">
-        <f>Kexo_S2!P9-Kexo_S2!O9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!P9-Kexo_S2!O9*(1-1/20)&gt;0.5,Kexo_S2!P9-Kexo_S2!O9*(1-1/20),0.5)</f>
+        <v>855.89872283720797</v>
       </c>
       <c r="Q9" s="69">
-        <f>Kexo_S2!Q9-Kexo_S2!P9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!Q9-Kexo_S2!P9*(1-1/20)&gt;0.5,Kexo_S2!Q9-Kexo_S2!P9*(1-1/20),0.5)</f>
+        <v>875.09561954680794</v>
       </c>
       <c r="R9" s="69">
-        <f>Kexo_S2!R9-Kexo_S2!Q9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!R9-Kexo_S2!Q9*(1-1/20)&gt;0.5,Kexo_S2!R9-Kexo_S2!Q9*(1-1/20),0.5)</f>
+        <v>894.29251625640609</v>
       </c>
       <c r="S9" s="69">
-        <f>Kexo_S2!S9-Kexo_S2!R9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!S9-Kexo_S2!R9*(1-1/20)&gt;0.5,Kexo_S2!S9-Kexo_S2!R9*(1-1/20),0.5)</f>
+        <v>1091.1065449112375</v>
       </c>
       <c r="T9" s="69">
-        <f>Kexo_S2!T9-Kexo_S2!S9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!T9-Kexo_S2!S9*(1-1/20)&gt;0.5,Kexo_S2!T9-Kexo_S2!S9*(1-1/20),0.5)</f>
+        <v>1119.1842982181006</v>
       </c>
       <c r="U9" s="69">
-        <f>Kexo_S2!U9-Kexo_S2!T9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!U9-Kexo_S2!T9*(1-1/20)&gt;0.5,Kexo_S2!U9-Kexo_S2!T9*(1-1/20),0.5)</f>
+        <v>1147.2620515249619</v>
       </c>
       <c r="V9" s="69">
-        <f>Kexo_S2!V9-Kexo_S2!U9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!V9-Kexo_S2!U9*(1-1/20)&gt;0.5,Kexo_S2!V9-Kexo_S2!U9*(1-1/20),0.5)</f>
+        <v>1175.3398048318231</v>
       </c>
       <c r="W9" s="69">
-        <f>Kexo_S2!W9-Kexo_S2!V9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!W9-Kexo_S2!V9*(1-1/20)&gt;0.5,Kexo_S2!W9-Kexo_S2!V9*(1-1/20),0.5)</f>
+        <v>1203.4175581386826</v>
       </c>
       <c r="X9" s="69">
-        <f>Kexo_S2!X9-Kexo_S2!W9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!X9-Kexo_S2!W9*(1-1/20)&gt;0.5,Kexo_S2!X9-Kexo_S2!W9*(1-1/20),0.5)</f>
+        <v>795.03149539525111</v>
       </c>
       <c r="Y9" s="69">
-        <f>Kexo_S2!Y9-Kexo_S2!X9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!Y9-Kexo_S2!X9*(1-1/20)&gt;0.5,Kexo_S2!Y9-Kexo_S2!X9*(1-1/20),0.5)</f>
+        <v>801.28605789959875</v>
       </c>
       <c r="Z9" s="69">
-        <f>Kexo_S2!Z9-Kexo_S2!Y9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!Z9-Kexo_S2!Y9*(1-1/20)&gt;0.5,Kexo_S2!Z9-Kexo_S2!Y9*(1-1/20),0.5)</f>
+        <v>807.54062040394638</v>
       </c>
       <c r="AA9" s="69">
-        <f>Kexo_S2!AA9-Kexo_S2!Z9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!AA9-Kexo_S2!Z9*(1-1/20)&gt;0.5,Kexo_S2!AA9-Kexo_S2!Z9*(1-1/20),0.5)</f>
+        <v>813.79518290829401</v>
       </c>
       <c r="AB9" s="69">
-        <f>Kexo_S2!AB9-Kexo_S2!AA9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!AB9-Kexo_S2!AA9*(1-1/20)&gt;0.5,Kexo_S2!AB9-Kexo_S2!AA9*(1-1/20),0.5)</f>
+        <v>820.04974541263982</v>
       </c>
       <c r="AC9" s="69">
-        <f>Kexo_S2!AC9-Kexo_S2!AB9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!AC9-Kexo_S2!AB9*(1-1/20)&gt;0.5,Kexo_S2!AC9-Kexo_S2!AB9*(1-1/20),0.5)</f>
+        <v>827.24319640378781</v>
       </c>
       <c r="AD9" s="69">
-        <f>Kexo_S2!AD9-Kexo_S2!AC9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!AD9-Kexo_S2!AC9*(1-1/20)&gt;0.5,Kexo_S2!AD9-Kexo_S2!AC9*(1-1/20),0.5)</f>
+        <v>833.54470333247627</v>
       </c>
       <c r="AE9" s="69">
-        <f>Kexo_S2!AE9-Kexo_S2!AD9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!AE9-Kexo_S2!AD9*(1-1/20)&gt;0.5,Kexo_S2!AE9-Kexo_S2!AD9*(1-1/20),0.5)</f>
+        <v>839.84621026116292</v>
       </c>
       <c r="AF9" s="69">
-        <f>Kexo_S2!AF9-Kexo_S2!AE9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!AF9-Kexo_S2!AE9*(1-1/20)&gt;0.5,Kexo_S2!AF9-Kexo_S2!AE9*(1-1/20),0.5)</f>
+        <v>846.14771718984957</v>
       </c>
       <c r="AG9" s="69">
-        <f>Kexo_S2!AG9-Kexo_S2!AF9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <f>IF(Kexo_S2!AG9-Kexo_S2!AF9*(1-1/20)&gt;0.5,Kexo_S2!AG9-Kexo_S2!AF9*(1-1/20),0.5)</f>
+        <v>852.44922411854168</v>
       </c>
       <c r="AH9" s="41"/>
       <c r="AI9" s="41"/>
@@ -9252,21 +10429,21 @@
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="104">
+      <c r="B1" s="118">
         <v>2030</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118">
         <v>2050</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
@@ -9285,10 +10462,10 @@
       <c r="F2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="105"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="23" t="s">
         <v>36</v>
       </c>
@@ -9321,10 +10498,10 @@
       <c r="F3" s="26">
         <v>30</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="107"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="25" t="s">
         <v>42</v>
       </c>
@@ -9357,10 +10534,10 @@
       <c r="F4" s="26">
         <v>10</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="116">
         <v>20</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="117"/>
       <c r="I4" s="25">
         <v>20</v>
       </c>
@@ -9393,10 +10570,10 @@
       <c r="F5" s="26">
         <v>2</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="116">
         <v>35</v>
       </c>
-      <c r="H5" s="103"/>
+      <c r="H5" s="117"/>
       <c r="I5" s="25">
         <v>5</v>
       </c>
@@ -9429,10 +10606,10 @@
       <c r="F6" s="26">
         <v>35</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="116">
         <v>55</v>
       </c>
-      <c r="H6" s="103"/>
+      <c r="H6" s="117"/>
       <c r="I6" s="25">
         <v>55</v>
       </c>
@@ -9465,10 +10642,10 @@
       <c r="F7" s="26">
         <v>7</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="116">
         <v>9</v>
       </c>
-      <c r="H7" s="103"/>
+      <c r="H7" s="117"/>
       <c r="I7" s="25">
         <v>20</v>
       </c>
@@ -9501,10 +10678,10 @@
       <c r="F8" s="26">
         <v>1</v>
       </c>
-      <c r="G8" s="102">
+      <c r="G8" s="116">
         <v>5</v>
       </c>
-      <c r="H8" s="103"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="25">
         <v>5</v>
       </c>
@@ -9606,14 +10783,14 @@
       <c r="A17" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101" t="s">
+      <c r="C17" s="122"/>
+      <c r="D17" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="101"/>
+      <c r="E17" s="122"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -9670,10 +10847,10 @@
       <c r="A21" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="101">
+      <c r="B21" s="122">
         <v>300</v>
       </c>
-      <c r="C21" s="101">
+      <c r="C21" s="122">
         <v>300</v>
       </c>
       <c r="D21" s="49">
@@ -9687,8 +10864,8 @@
       <c r="A22" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="49">
         <v>2</v>
       </c>
@@ -9717,10 +10894,10 @@
       <c r="A24" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="122">
         <v>30</v>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="122">
         <v>75</v>
       </c>
       <c r="D24" s="49">
@@ -9734,8 +10911,8 @@
       <c r="A25" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="49">
         <v>10</v>
       </c>
@@ -9764,10 +10941,10 @@
       <c r="A27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="101">
+      <c r="B27" s="122">
         <v>20</v>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="122">
         <v>35</v>
       </c>
       <c r="D27" s="49">
@@ -9781,8 +10958,8 @@
       <c r="A28" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="49">
         <v>1</v>
       </c>
@@ -9839,6 +11016,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
@@ -9848,14 +11033,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9866,7 +11043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH162"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9905,7 +11084,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -9940,7 +11119,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -9973,7 +11152,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -10134,7 +11313,7 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="125" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -10169,7 +11348,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -10202,7 +11381,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -10411,7 +11590,7 @@
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="108" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -10446,7 +11625,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -10479,7 +11658,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
@@ -10642,7 +11821,7 @@
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="125" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -10677,7 +11856,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
@@ -10710,7 +11889,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="6" t="s">
         <v>3</v>
       </c>
@@ -11006,7 +12185,7 @@
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="108" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -11041,7 +12220,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
@@ -11074,7 +12253,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="100"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="6" t="s">
         <v>3</v>
       </c>
@@ -11468,7 +12647,7 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="108" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -11503,7 +12682,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
@@ -11536,7 +12715,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="12" t="s">
         <v>3</v>
       </c>
@@ -11693,7 +12872,7 @@
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="99" t="s">
+      <c r="A57" s="108" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -11730,7 +12909,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="100" t="s">
+      <c r="A58" s="109" t="s">
         <v>15</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -11767,7 +12946,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="100"/>
+      <c r="A59" s="109"/>
       <c r="B59" s="12" t="s">
         <v>18</v>
       </c>
@@ -11802,7 +12981,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="100"/>
+      <c r="A60" s="109"/>
       <c r="B60" s="6" t="s">
         <v>19</v>
       </c>
@@ -11837,7 +13016,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="109"/>
       <c r="B61" s="6" t="s">
         <v>21</v>
       </c>
@@ -12004,7 +13183,7 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="99" t="s">
+      <c r="A66" s="108" t="s">
         <v>25</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -12041,7 +13220,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="100" t="s">
+      <c r="A67" s="109" t="s">
         <v>15</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -12078,7 +13257,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="100"/>
+      <c r="A68" s="109"/>
       <c r="B68" s="12" t="s">
         <v>18</v>
       </c>
@@ -12113,7 +13292,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="100"/>
+      <c r="A69" s="109"/>
       <c r="B69" s="6" t="s">
         <v>19</v>
       </c>
@@ -12148,7 +13327,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="100"/>
+      <c r="A70" s="109"/>
       <c r="B70" s="6" t="s">
         <v>21</v>
       </c>
@@ -12312,7 +13491,7 @@
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="123" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -12347,7 +13526,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="109"/>
+      <c r="A76" s="124"/>
       <c r="B76" s="6" t="s">
         <v>30</v>
       </c>
@@ -12380,7 +13559,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="109"/>
+      <c r="A77" s="124"/>
       <c r="B77" s="12" t="s">
         <v>31</v>
       </c>
@@ -12413,7 +13592,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="109"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="6" t="s">
         <v>3</v>
       </c>
@@ -12569,7 +13748,7 @@
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="123" t="s">
         <v>32</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -12604,7 +13783,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="109"/>
+      <c r="A84" s="124"/>
       <c r="B84" s="6" t="s">
         <v>30</v>
       </c>
@@ -12637,7 +13816,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="109"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="6" t="s">
         <v>33</v>
       </c>
@@ -12670,7 +13849,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="109"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="6" t="s">
         <v>3</v>
       </c>
@@ -12771,7 +13950,7 @@
       <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="123" t="s">
         <v>67</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -12788,7 +13967,7 @@
       <c r="K91" s="10"/>
     </row>
     <row r="92" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="109"/>
+      <c r="A92" s="124"/>
       <c r="B92" s="6" t="s">
         <v>30</v>
       </c>
@@ -12803,7 +13982,7 @@
       <c r="K92" s="9"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="109"/>
+      <c r="A93" s="124"/>
       <c r="B93" s="12" t="s">
         <v>31</v>
       </c>
@@ -12818,7 +13997,7 @@
       <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="109"/>
+      <c r="A94" s="124"/>
       <c r="B94" s="6" t="s">
         <v>3</v>
       </c>
@@ -12897,7 +14076,7 @@
       <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="108" t="s">
+      <c r="A99" s="123" t="s">
         <v>68</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -12914,7 +14093,7 @@
       <c r="K99" s="9"/>
     </row>
     <row r="100" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="109"/>
+      <c r="A100" s="124"/>
       <c r="B100" s="6" t="s">
         <v>30</v>
       </c>
@@ -12929,7 +14108,7 @@
       <c r="K100" s="9"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="109"/>
+      <c r="A101" s="124"/>
       <c r="B101" s="6" t="s">
         <v>33</v>
       </c>
@@ -12944,7 +14123,7 @@
       <c r="K101" s="10"/>
     </row>
     <row r="102" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="109"/>
+      <c r="A102" s="124"/>
       <c r="B102" s="6" t="s">
         <v>3</v>
       </c>
@@ -13023,7 +14202,7 @@
       <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="108"/>
+      <c r="A107" s="123"/>
       <c r="B107" s="6" t="s">
         <v>16</v>
       </c>
@@ -13038,7 +14217,7 @@
       <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="109"/>
+      <c r="A108" s="124"/>
       <c r="B108" s="6" t="s">
         <v>30</v>
       </c>
@@ -13053,7 +14232,7 @@
       <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="109"/>
+      <c r="A109" s="124"/>
       <c r="B109" s="6" t="s">
         <v>33</v>
       </c>
@@ -13068,7 +14247,7 @@
       <c r="K109" s="10"/>
     </row>
     <row r="110" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="109"/>
+      <c r="A110" s="124"/>
       <c r="B110" s="6" t="s">
         <v>3</v>
       </c>
@@ -13145,7 +14324,7 @@
       <c r="K114" s="9"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="108"/>
+      <c r="A115" s="123"/>
       <c r="B115" s="6" t="s">
         <v>16</v>
       </c>
@@ -13160,7 +14339,7 @@
       <c r="K115" s="9"/>
     </row>
     <row r="116" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="109"/>
+      <c r="A116" s="124"/>
       <c r="B116" s="6" t="s">
         <v>30</v>
       </c>
@@ -13175,7 +14354,7 @@
       <c r="K116" s="9"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="109"/>
+      <c r="A117" s="124"/>
       <c r="B117" s="6" t="s">
         <v>33</v>
       </c>
@@ -13190,7 +14369,7 @@
       <c r="K117" s="10"/>
     </row>
     <row r="118" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="109"/>
+      <c r="A118" s="124"/>
       <c r="B118" s="6" t="s">
         <v>3</v>
       </c>
@@ -13291,7 +14470,7 @@
       <c r="K122" s="9"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="108"/>
+      <c r="A123" s="123"/>
       <c r="B123" s="6" t="s">
         <v>16</v>
       </c>
@@ -13306,7 +14485,7 @@
       <c r="K123" s="9"/>
     </row>
     <row r="124" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="109"/>
+      <c r="A124" s="124"/>
       <c r="B124" s="6" t="s">
         <v>30</v>
       </c>
@@ -13321,7 +14500,7 @@
       <c r="K124" s="9"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="109"/>
+      <c r="A125" s="124"/>
       <c r="B125" s="6" t="s">
         <v>33</v>
       </c>
@@ -13336,7 +14515,7 @@
       <c r="K125" s="10"/>
     </row>
     <row r="126" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="109"/>
+      <c r="A126" s="124"/>
       <c r="B126" s="6" t="s">
         <v>3</v>
       </c>
@@ -13429,7 +14608,7 @@
       <c r="K130" s="9"/>
     </row>
     <row r="131" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="108"/>
+      <c r="A131" s="123"/>
       <c r="B131" s="6" t="s">
         <v>16</v>
       </c>
@@ -13444,7 +14623,7 @@
       <c r="K131" s="9"/>
     </row>
     <row r="132" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="109"/>
+      <c r="A132" s="124"/>
       <c r="B132" s="6" t="s">
         <v>30</v>
       </c>
@@ -13459,7 +14638,7 @@
       <c r="K132" s="9"/>
     </row>
     <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="109"/>
+      <c r="A133" s="124"/>
       <c r="B133" s="6" t="s">
         <v>33</v>
       </c>
@@ -13474,7 +14653,7 @@
       <c r="K133" s="10"/>
     </row>
     <row r="134" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="109"/>
+      <c r="A134" s="124"/>
       <c r="B134" s="6" t="s">
         <v>3</v>
       </c>
@@ -13553,7 +14732,7 @@
       <c r="K138" s="9"/>
     </row>
     <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="108"/>
+      <c r="A139" s="123"/>
       <c r="B139" s="6" t="s">
         <v>16</v>
       </c>
@@ -13568,7 +14747,7 @@
       <c r="K139" s="9"/>
     </row>
     <row r="140" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="109"/>
+      <c r="A140" s="124"/>
       <c r="B140" s="6" t="s">
         <v>30</v>
       </c>
@@ -13583,7 +14762,7 @@
       <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="109"/>
+      <c r="A141" s="124"/>
       <c r="B141" s="6" t="s">
         <v>33</v>
       </c>
@@ -13598,7 +14777,7 @@
       <c r="K141" s="10"/>
     </row>
     <row r="142" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="109"/>
+      <c r="A142" s="124"/>
       <c r="B142" s="6" t="s">
         <v>3</v>
       </c>
@@ -13675,7 +14854,7 @@
       <c r="K146" s="9"/>
     </row>
     <row r="147" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="108"/>
+      <c r="A147" s="123"/>
       <c r="B147" s="6" t="s">
         <v>16</v>
       </c>
@@ -13690,7 +14869,7 @@
       <c r="K147" s="9"/>
     </row>
     <row r="148" spans="1:34" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="109"/>
+      <c r="A148" s="124"/>
       <c r="B148" s="6" t="s">
         <v>30</v>
       </c>
@@ -13705,7 +14884,7 @@
       <c r="K148" s="9"/>
     </row>
     <row r="149" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="109"/>
+      <c r="A149" s="124"/>
       <c r="B149" s="6" t="s">
         <v>33</v>
       </c>
@@ -13720,7 +14899,7 @@
       <c r="K149" s="10"/>
     </row>
     <row r="150" spans="1:34" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="109"/>
+      <c r="A150" s="124"/>
       <c r="B150" s="6" t="s">
         <v>3</v>
       </c>
@@ -13900,6 +15079,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A131:A134"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A9:A11"/>
@@ -13912,14 +15099,6 @@
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A147:A150"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A131:A134"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -13936,7 +15115,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH162"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13977,7 +15161,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -14017,7 +15201,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -14055,7 +15239,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -14253,7 +15437,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="125" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -14293,7 +15477,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -14331,7 +15515,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -14611,7 +15795,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="108" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -14651,7 +15835,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -14689,7 +15873,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
@@ -14887,7 +16071,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="125" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -14927,7 +16111,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
@@ -14965,7 +16149,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="6" t="s">
         <v>3</v>
       </c>
@@ -15317,7 +16501,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="108" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -15357,7 +16541,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
@@ -15395,7 +16579,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="100"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="6" t="s">
         <v>3</v>
       </c>
@@ -15866,7 +17050,7 @@
       <c r="L49" s="82"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="108" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -15906,7 +17090,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
@@ -15944,7 +17128,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="12" t="s">
         <v>3</v>
       </c>
@@ -16136,7 +17320,7 @@
       <c r="L56" s="82"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="99" t="s">
+      <c r="A57" s="108" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -16184,7 +17368,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="100" t="s">
+      <c r="A58" s="109" t="s">
         <v>15</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -16232,7 +17416,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="100"/>
+      <c r="A59" s="109"/>
       <c r="B59" s="12" t="s">
         <v>18</v>
       </c>
@@ -16278,7 +17462,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="100"/>
+      <c r="A60" s="109"/>
       <c r="B60" s="6" t="s">
         <v>19</v>
       </c>
@@ -16321,7 +17505,7 @@
       <c r="L60" s="82"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
+      <c r="A61" s="109"/>
       <c r="B61" s="6" t="s">
         <v>21</v>
       </c>
@@ -16533,7 +17717,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="99" t="s">
+      <c r="A66" s="108" t="s">
         <v>25</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -16581,7 +17765,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="100" t="s">
+      <c r="A67" s="109" t="s">
         <v>15</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -16629,7 +17813,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="100"/>
+      <c r="A68" s="109"/>
       <c r="B68" s="12" t="s">
         <v>18</v>
       </c>
@@ -16675,7 +17859,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="100"/>
+      <c r="A69" s="109"/>
       <c r="B69" s="6" t="s">
         <v>19</v>
       </c>
@@ -16718,7 +17902,7 @@
       <c r="L69" s="82"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="100"/>
+      <c r="A70" s="109"/>
       <c r="B70" s="6" t="s">
         <v>21</v>
       </c>
@@ -16936,7 +18120,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="123" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -16976,7 +18160,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="109"/>
+      <c r="A76" s="124"/>
       <c r="B76" s="6" t="s">
         <v>30</v>
       </c>
@@ -17014,7 +18198,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="109"/>
+      <c r="A77" s="124"/>
       <c r="B77" s="12" t="s">
         <v>31</v>
       </c>
@@ -17052,7 +18236,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="109"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="6" t="s">
         <v>3</v>
       </c>
@@ -17245,7 +18429,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="123" t="s">
         <v>32</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -17285,7 +18469,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="109"/>
+      <c r="A84" s="124"/>
       <c r="B84" s="6" t="s">
         <v>30</v>
       </c>
@@ -17323,7 +18507,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="109"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="6" t="s">
         <v>33</v>
       </c>
@@ -17361,7 +18545,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="109"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="6" t="s">
         <v>3</v>
       </c>
@@ -17565,7 +18749,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="123" t="s">
         <v>67</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -17586,7 +18770,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="109"/>
+      <c r="A92" s="124"/>
       <c r="B92" s="6" t="s">
         <v>30</v>
       </c>
@@ -17605,7 +18789,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="109"/>
+      <c r="A93" s="124"/>
       <c r="B93" s="12" t="s">
         <v>31</v>
       </c>
@@ -17624,7 +18808,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="109"/>
+      <c r="A94" s="124"/>
       <c r="B94" s="6" t="s">
         <v>3</v>
       </c>
@@ -17767,7 +18951,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="108" t="s">
+      <c r="A99" s="123" t="s">
         <v>68</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -17788,7 +18972,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="109"/>
+      <c r="A100" s="124"/>
       <c r="B100" s="6" t="s">
         <v>30</v>
       </c>
@@ -17807,7 +18991,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="109"/>
+      <c r="A101" s="124"/>
       <c r="B101" s="6" t="s">
         <v>33</v>
       </c>
@@ -17826,7 +19010,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="109"/>
+      <c r="A102" s="124"/>
       <c r="B102" s="6" t="s">
         <v>3</v>
       </c>
@@ -17963,7 +19147,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="108"/>
+      <c r="A107" s="123"/>
       <c r="B107" s="6" t="s">
         <v>16</v>
       </c>
@@ -17982,7 +19166,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="109"/>
+      <c r="A108" s="124"/>
       <c r="B108" s="6" t="s">
         <v>30</v>
       </c>
@@ -18001,7 +19185,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="109"/>
+      <c r="A109" s="124"/>
       <c r="B109" s="6" t="s">
         <v>33</v>
       </c>
@@ -18020,7 +19204,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="109"/>
+      <c r="A110" s="124"/>
       <c r="B110" s="6" t="s">
         <v>3</v>
       </c>
@@ -18159,7 +19343,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="108"/>
+      <c r="A115" s="123"/>
       <c r="B115" s="6" t="s">
         <v>16</v>
       </c>
@@ -18178,7 +19362,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="109"/>
+      <c r="A116" s="124"/>
       <c r="B116" s="6" t="s">
         <v>30</v>
       </c>
@@ -18197,7 +19381,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="109"/>
+      <c r="A117" s="124"/>
       <c r="B117" s="6" t="s">
         <v>33</v>
       </c>
@@ -18216,7 +19400,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="109"/>
+      <c r="A118" s="124"/>
       <c r="B118" s="6" t="s">
         <v>3</v>
       </c>
@@ -18355,7 +19539,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="108"/>
+      <c r="A123" s="123"/>
       <c r="B123" s="6" t="s">
         <v>16</v>
       </c>
@@ -18374,7 +19558,7 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="109"/>
+      <c r="A124" s="124"/>
       <c r="B124" s="6" t="s">
         <v>30</v>
       </c>
@@ -18393,7 +19577,7 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="109"/>
+      <c r="A125" s="124"/>
       <c r="B125" s="6" t="s">
         <v>33</v>
       </c>
@@ -18412,7 +19596,7 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="109"/>
+      <c r="A126" s="124"/>
       <c r="B126" s="6" t="s">
         <v>3</v>
       </c>
@@ -18557,7 +19741,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="108"/>
+      <c r="A131" s="123"/>
       <c r="B131" s="6" t="s">
         <v>16</v>
       </c>
@@ -18576,7 +19760,7 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="109"/>
+      <c r="A132" s="124"/>
       <c r="B132" s="6" t="s">
         <v>30</v>
       </c>
@@ -18595,7 +19779,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="109"/>
+      <c r="A133" s="124"/>
       <c r="B133" s="6" t="s">
         <v>33</v>
       </c>
@@ -18614,7 +19798,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="109"/>
+      <c r="A134" s="124"/>
       <c r="B134" s="6" t="s">
         <v>3</v>
       </c>
@@ -18753,7 +19937,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="108"/>
+      <c r="A139" s="123"/>
       <c r="B139" s="6" t="s">
         <v>16</v>
       </c>
@@ -18772,7 +19956,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="109"/>
+      <c r="A140" s="124"/>
       <c r="B140" s="6" t="s">
         <v>30</v>
       </c>
@@ -18791,7 +19975,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="109"/>
+      <c r="A141" s="124"/>
       <c r="B141" s="6" t="s">
         <v>33</v>
       </c>
@@ -18810,7 +19994,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="109"/>
+      <c r="A142" s="124"/>
       <c r="B142" s="6" t="s">
         <v>3</v>
       </c>
@@ -18949,7 +20133,7 @@
       </c>
     </row>
     <row r="147" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="108"/>
+      <c r="A147" s="123"/>
       <c r="B147" s="6" t="s">
         <v>16</v>
       </c>
@@ -18968,7 +20152,7 @@
       </c>
     </row>
     <row r="148" spans="1:34" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="109"/>
+      <c r="A148" s="124"/>
       <c r="B148" s="6" t="s">
         <v>30</v>
       </c>
@@ -18987,7 +20171,7 @@
       </c>
     </row>
     <row r="149" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="109"/>
+      <c r="A149" s="124"/>
       <c r="B149" s="6" t="s">
         <v>33</v>
       </c>
@@ -19006,7 +20190,7 @@
       </c>
     </row>
     <row r="150" spans="1:34" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="109"/>
+      <c r="A150" s="124"/>
       <c r="B150" s="6" t="s">
         <v>3</v>
       </c>
@@ -19244,6 +20428,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A107:A110"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A9:A11"/>
@@ -19256,14 +20448,6 @@
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A147:A150"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A107:A110"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -20532,8 +21716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21160,7 +22344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BF20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22383,128 +23569,128 @@
       </c>
       <c r="B9" s="69"/>
       <c r="C9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 AMS'!$I$12*20</f>
+        <v>6108.6583217156422</v>
       </c>
       <c r="D9" s="69">
-        <f t="shared" ref="D9:G9" si="31">+C9+($H9-$C9)/5</f>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="D9" si="31">+C9+($H9-$C9)/5</f>
+        <v>7344.2319135292892</v>
       </c>
       <c r="E9" s="69">
-        <f t="shared" si="31"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="E9" si="32">+D9+($H9-$C9)/5</f>
+        <v>8579.8055053429362</v>
       </c>
       <c r="F9" s="69">
-        <f t="shared" si="31"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="F9" si="33">+E9+($H9-$C9)/5</f>
+        <v>9815.3790971565832</v>
       </c>
       <c r="G9" s="69">
-        <f t="shared" si="31"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="G9" si="34">+F9+($H9-$C9)/5</f>
+        <v>11050.95268897023</v>
       </c>
       <c r="H9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 '!$N$12*20</f>
+        <v>12286.526280783877</v>
       </c>
       <c r="I9" s="69">
-        <f t="shared" ref="I9:L9" si="32">H9+($M9-$H9)/5</f>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="I9" si="35">H9+($M9-$H9)/5</f>
+        <v>12778.58185433656</v>
       </c>
       <c r="J9" s="69">
-        <f t="shared" si="32"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="J9" si="36">I9+($M9-$H9)/5</f>
+        <v>13270.637427889244</v>
       </c>
       <c r="K9" s="69">
-        <f t="shared" si="32"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="K9" si="37">J9+($M9-$H9)/5</f>
+        <v>13762.693001441927</v>
       </c>
       <c r="L9" s="69">
-        <f t="shared" si="32"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="L9" si="38">K9+($M9-$H9)/5</f>
+        <v>14254.74857499461</v>
       </c>
       <c r="M9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 '!S$12*20</f>
+        <v>14746.80414854729</v>
       </c>
       <c r="N9" s="69">
-        <f t="shared" ref="N9:Q9" si="33">M9+($R9-$M9)/5</f>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="N9" si="39">M9+($R9-$M9)/5</f>
+        <v>15024.061984095446</v>
       </c>
       <c r="O9" s="69">
-        <f t="shared" si="33"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="O9" si="40">N9+($R9-$M9)/5</f>
+        <v>15301.319819643602</v>
       </c>
       <c r="P9" s="69">
-        <f t="shared" si="33"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="P9" si="41">O9+($R9-$M9)/5</f>
+        <v>15578.577655191759</v>
       </c>
       <c r="Q9" s="69">
-        <f t="shared" si="33"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="Q9" si="42">P9+($R9-$M9)/5</f>
+        <v>15855.835490739915</v>
       </c>
       <c r="R9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 '!X$12*20</f>
+        <v>16133.093326288075</v>
       </c>
       <c r="S9" s="69">
-        <f t="shared" ref="S9:V9" si="34">R9+($W9-$R9)/5</f>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="S9" si="43">R9+($W9-$R9)/5</f>
+        <v>17201.809825025532</v>
       </c>
       <c r="T9" s="69">
-        <f t="shared" si="34"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="T9" si="44">S9+($W9-$R9)/5</f>
+        <v>18270.526323762988</v>
       </c>
       <c r="U9" s="69">
-        <f t="shared" si="34"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="U9" si="45">T9+($W9-$R9)/5</f>
+        <v>19339.242822500444</v>
       </c>
       <c r="V9" s="69">
-        <f t="shared" si="34"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="V9" si="46">U9+($W9-$R9)/5</f>
+        <v>20407.9593212379</v>
       </c>
       <c r="W9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 '!AC$12*20</f>
+        <v>21476.675819975357</v>
       </c>
       <c r="X9" s="69">
-        <f t="shared" ref="X9:AA9" si="35">W9+($AB9-$W9)/5</f>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="X9" si="47">W9+($AB9-$W9)/5</f>
+        <v>21785.006588863889</v>
       </c>
       <c r="Y9" s="69">
-        <f t="shared" si="35"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="Y9" si="48">X9+($AB9-$W9)/5</f>
+        <v>22093.337357752422</v>
       </c>
       <c r="Z9" s="69">
-        <f t="shared" si="35"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="Z9" si="49">Y9+($AB9-$W9)/5</f>
+        <v>22401.668126640954</v>
       </c>
       <c r="AA9" s="69">
-        <f t="shared" si="35"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AA9" si="50">Z9+($AB9-$W9)/5</f>
+        <v>22709.998895529487</v>
       </c>
       <c r="AB9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 '!AH$12*20</f>
+        <v>23018.329664418023</v>
       </c>
       <c r="AC9" s="69">
-        <f t="shared" ref="AC9:AF9" si="36">AB9+($AG9-$AB9)/5</f>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AC9" si="51">AB9+($AG9-$AB9)/5</f>
+        <v>23337.332982068725</v>
       </c>
       <c r="AD9" s="69">
-        <f t="shared" si="36"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AD9" si="52">AC9+($AG9-$AB9)/5</f>
+        <v>23656.336299719427</v>
       </c>
       <c r="AE9" s="69">
-        <f t="shared" si="36"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AE9" si="53">AD9+($AG9-$AB9)/5</f>
+        <v>23975.339617370129</v>
       </c>
       <c r="AF9" s="69">
-        <f t="shared" si="36"/>
-        <v>9401.0762018967798</v>
+        <f t="shared" ref="AF9" si="54">AE9+($AG9-$AB9)/5</f>
+        <v>24294.342935020832</v>
       </c>
       <c r="AG9" s="69">
-        <f>'[5]CU énergie'!$F55*[4]Production!$C$43*20</f>
-        <v>9401.0762018967798</v>
+        <f>'[5]CU énergie'!$F55*'[7]Cibles ThreeME v2 '!AM$12*20</f>
+        <v>24613.34625267153</v>
       </c>
       <c r="AH9" s="41"/>
       <c r="AI9" s="41"/>
@@ -23078,9 +24264,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:BE20"/>
+  <dimension ref="A1:BE21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="W5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24277,123 +25465,123 @@
       <c r="C9" s="69"/>
       <c r="D9" s="69">
         <f>Kexo_TEND!D9-Kexo_TEND!C9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1541.0065078994294</v>
       </c>
       <c r="E9" s="69">
         <f>Kexo_TEND!E9-Kexo_TEND!D9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1602.7851874901116</v>
       </c>
       <c r="F9" s="69">
         <f>Kexo_TEND!F9-Kexo_TEND!E9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1664.5638670807939</v>
       </c>
       <c r="G9" s="69">
         <f>Kexo_TEND!G9-Kexo_TEND!F9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1726.3425466714762</v>
       </c>
       <c r="H9" s="69">
         <f>Kexo_TEND!H9-Kexo_TEND!G9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1788.1212262621593</v>
       </c>
       <c r="I9" s="69">
         <f>Kexo_TEND!I9-Kexo_TEND!H9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1106.3818875918769</v>
       </c>
       <c r="J9" s="69">
         <f>Kexo_TEND!J9-Kexo_TEND!I9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1130.9846662695127</v>
       </c>
       <c r="K9" s="69">
         <f>Kexo_TEND!K9-Kexo_TEND!J9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1155.5874449471467</v>
       </c>
       <c r="L9" s="69">
         <f>Kexo_TEND!L9-Kexo_TEND!K9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1180.1902236247806</v>
       </c>
       <c r="M9" s="69">
         <f>Kexo_TEND!M9-Kexo_TEND!L9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1204.793002302411</v>
       </c>
       <c r="N9" s="69">
         <f>Kexo_TEND!N9-Kexo_TEND!M9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1014.5980429755218</v>
       </c>
       <c r="O9" s="69">
         <f>Kexo_TEND!O9-Kexo_TEND!N9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1028.4609347529295</v>
       </c>
       <c r="P9" s="69">
         <f>Kexo_TEND!P9-Kexo_TEND!O9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1042.3238265303371</v>
       </c>
       <c r="Q9" s="69">
         <f>Kexo_TEND!Q9-Kexo_TEND!P9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1056.1867183077447</v>
       </c>
       <c r="R9" s="69">
         <f>Kexo_TEND!R9-Kexo_TEND!Q9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1070.049610085156</v>
       </c>
       <c r="S9" s="69">
         <f>Kexo_TEND!S9-Kexo_TEND!R9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1875.3711650518599</v>
       </c>
       <c r="T9" s="69">
         <f>Kexo_TEND!T9-Kexo_TEND!S9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1928.8069899887341</v>
       </c>
       <c r="U9" s="69">
         <f>Kexo_TEND!U9-Kexo_TEND!T9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1982.2428149256048</v>
       </c>
       <c r="V9" s="69">
         <f>Kexo_TEND!V9-Kexo_TEND!U9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>2035.678639862479</v>
       </c>
       <c r="W9" s="69">
         <f>Kexo_TEND!W9-Kexo_TEND!V9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>2089.1144647993533</v>
       </c>
       <c r="X9" s="69">
         <f>Kexo_TEND!X9-Kexo_TEND!W9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1382.1645598873001</v>
       </c>
       <c r="Y9" s="69">
         <f>Kexo_TEND!Y9-Kexo_TEND!X9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1397.5810983317278</v>
       </c>
       <c r="Z9" s="69">
         <f>Kexo_TEND!Z9-Kexo_TEND!Y9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1412.9976367761556</v>
       </c>
       <c r="AA9" s="69">
         <f>Kexo_TEND!AA9-Kexo_TEND!Z9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1428.4141752205796</v>
       </c>
       <c r="AB9" s="69">
         <f>Kexo_TEND!AB9-Kexo_TEND!AA9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1443.830713665011</v>
       </c>
       <c r="AC9" s="69">
         <f>Kexo_TEND!AC9-Kexo_TEND!AB9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1469.9198008716048</v>
       </c>
       <c r="AD9" s="69">
         <f>Kexo_TEND!AD9-Kexo_TEND!AC9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1485.8699667541405</v>
       </c>
       <c r="AE9" s="69">
         <f>Kexo_TEND!AE9-Kexo_TEND!AD9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1501.8201326366761</v>
       </c>
       <c r="AF9" s="69">
         <f>Kexo_TEND!AF9-Kexo_TEND!AE9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1517.7702985192082</v>
       </c>
       <c r="AG9" s="69">
         <f>Kexo_TEND!AG9-Kexo_TEND!AF9*(1-1/20)</f>
-        <v>470.05381009483972</v>
+        <v>1533.7204644017402</v>
       </c>
       <c r="AH9" s="41"/>
       <c r="AI9" s="41"/>
@@ -24419,10 +25607,65 @@
       <c r="BC9" s="41"/>
       <c r="BD9" s="41"/>
     </row>
-    <row r="12" spans="1:57" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:57" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D11" s="41">
+        <f>SUM(D2:D9)*1.2</f>
+        <v>16344.202055266363</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AJ11" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO11" s="92"/>
+    </row>
+    <row r="12" spans="1:57" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2021</v>
+      </c>
       <c r="B12" s="58"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
+      <c r="C12" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>125</v>
+      </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="71"/>
@@ -24430,8 +25673,12 @@
       <c r="I12" s="71"/>
       <c r="J12" s="71"/>
       <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="L12" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>125</v>
+      </c>
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
       <c r="P12" s="71"/>
@@ -24450,16 +25697,32 @@
       <c r="AC12" s="71"/>
       <c r="AD12" s="71"/>
       <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
+      <c r="AF12" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG12" s="56" t="s">
+        <v>125</v>
+      </c>
       <c r="AH12" s="71"/>
       <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="71"/>
+      <c r="AJ12" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK12" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL12" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM12" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN12" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO12" s="94" t="s">
+        <v>125</v>
+      </c>
       <c r="AP12" s="71"/>
       <c r="AQ12" s="71"/>
       <c r="AR12" s="71"/>
@@ -24478,10 +25741,18 @@
       <c r="BE12" s="71"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="57" t="s">
+        <v>88</v>
+      </c>
       <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="90">
+        <f>D2*1.19</f>
+        <v>7275.7217944861814</v>
+      </c>
+      <c r="D13" s="90">
+        <f>[6]NUCLEAIRE!$JW$316</f>
+        <v>7280.6399999999994</v>
+      </c>
       <c r="E13" s="74"/>
       <c r="F13" s="74"/>
       <c r="G13" s="74"/>
@@ -24489,8 +25760,14 @@
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
+      <c r="L13" s="90">
+        <f>M2*1.19</f>
+        <v>4234.3494632002576</v>
+      </c>
+      <c r="M13" s="90">
+        <f>[6]NUCLEAIRE!$KG$612</f>
+        <v>5384.0850731707314</v>
+      </c>
       <c r="N13" s="74"/>
       <c r="O13" s="74"/>
       <c r="P13" s="74"/>
@@ -24509,16 +25786,40 @@
       <c r="AC13" s="75"/>
       <c r="AD13" s="75"/>
       <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
+      <c r="AF13" s="90">
+        <f>AG2*1.19</f>
+        <v>1358.3768919087909</v>
+      </c>
+      <c r="AG13" s="90">
+        <f>[6]NUCLEAIRE!$LA$612</f>
+        <v>300.51422138836773</v>
+      </c>
       <c r="AH13" s="75"/>
       <c r="AI13" s="75"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="75"/>
+      <c r="AJ13" s="95">
+        <f>SUM(D2:H2)</f>
+        <v>33926.772434118495</v>
+      </c>
+      <c r="AK13" s="96">
+        <f>SUM([6]NUCLEAIRE!$JX$612:$KB$612)</f>
+        <v>21239.585466537508</v>
+      </c>
+      <c r="AL13" s="95">
+        <f>SUM(M2:AG2)</f>
+        <v>41765.723337404095</v>
+      </c>
+      <c r="AM13" s="96">
+        <f>SUM([6]NUCLEAIRE!$KH$612:$LA$612)</f>
+        <v>36527.759729831145</v>
+      </c>
+      <c r="AN13" s="95">
+        <f>SUM(D2:AG2)</f>
+        <v>90008.109207917601</v>
+      </c>
+      <c r="AO13" s="96">
+        <f>SUM([6]NUCLEAIRE!$JX$612:$LA$612)</f>
+        <v>81663.789293929643</v>
+      </c>
       <c r="AP13" s="75"/>
       <c r="AQ13" s="75"/>
       <c r="AR13" s="75"/>
@@ -24537,9 +25838,14 @@
       <c r="BE13" s="76"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="57" t="s">
+        <v>89</v>
+      </c>
       <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="C14" s="90">
+        <f t="shared" ref="C14:C20" si="1">D3*1.19</f>
+        <v>3.6466360000000071</v>
+      </c>
       <c r="D14" s="74"/>
       <c r="E14" s="74"/>
       <c r="F14" s="74"/>
@@ -24548,7 +25854,10 @@
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="L14" s="90">
+        <f t="shared" ref="L14:L20" si="2">M3*1.19</f>
+        <v>3.6466360000000071</v>
+      </c>
       <c r="M14" s="74"/>
       <c r="N14" s="74"/>
       <c r="O14" s="74"/>
@@ -24568,16 +25877,28 @@
       <c r="AC14" s="75"/>
       <c r="AD14" s="75"/>
       <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
+      <c r="AF14" s="90">
+        <f t="shared" ref="AF14:AF20" si="3">AG3*1.19</f>
+        <v>3.6466360000000071</v>
+      </c>
+      <c r="AG14" s="74"/>
       <c r="AH14" s="75"/>
       <c r="AI14" s="75"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="75"/>
+      <c r="AJ14" s="95">
+        <f t="shared" ref="AJ14:AJ20" si="4">SUM(D3:H3)</f>
+        <v>15.322000000000031</v>
+      </c>
+      <c r="AK14" s="97"/>
+      <c r="AL14" s="95">
+        <f t="shared" ref="AL14:AL20" si="5">SUM(M3:AG3)</f>
+        <v>64.352400000000131</v>
+      </c>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="95">
+        <f t="shared" ref="AN14:AN20" si="6">SUM(D3:AG3)</f>
+        <v>91.932000000000187</v>
+      </c>
+      <c r="AO14" s="100"/>
       <c r="AP14" s="75"/>
       <c r="AQ14" s="75"/>
       <c r="AR14" s="75"/>
@@ -24596,10 +25917,18 @@
       <c r="BE14" s="76"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="57" t="s">
+        <v>90</v>
+      </c>
       <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="90">
+        <f t="shared" si="1"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D15" s="89">
+        <f>+[6]PRODELEC!$N$2226</f>
+        <v>376.49738567366785</v>
+      </c>
       <c r="E15" s="74"/>
       <c r="F15" s="74"/>
       <c r="G15" s="74"/>
@@ -24607,8 +25936,14 @@
       <c r="I15" s="74"/>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="L15" s="90">
+        <f t="shared" si="2"/>
+        <v>110.6358164700559</v>
+      </c>
+      <c r="M15" s="89">
+        <f>++[6]PRODELEC!$KG$2226</f>
+        <v>0</v>
+      </c>
       <c r="N15" s="74"/>
       <c r="O15" s="74"/>
       <c r="P15" s="74"/>
@@ -24627,16 +25962,40 @@
       <c r="AC15" s="75"/>
       <c r="AD15" s="75"/>
       <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
+      <c r="AF15" s="90">
+        <f t="shared" si="3"/>
+        <v>2203.8416757133036</v>
+      </c>
+      <c r="AG15" s="89">
+        <f>++[6]PRODELEC!$LA$2226</f>
+        <v>0</v>
+      </c>
       <c r="AH15" s="75"/>
       <c r="AI15" s="75"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="75"/>
+      <c r="AJ15" s="95">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AK15" s="97">
+        <f>SUM([6]PRODELEC!$JX$2226:$KB$2226)</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="95">
+        <f t="shared" si="5"/>
+        <v>11165.986264690431</v>
+      </c>
+      <c r="AM15" s="96">
+        <f>SUM([6]PRODELEC!$KH$2226:$LA$2226)</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="95">
+        <f t="shared" si="6"/>
+        <v>11550.440227487657</v>
+      </c>
+      <c r="AO15" s="103">
+        <f>SUM([6]PRODELEC!$JX$2226:$LA$2226)</f>
+        <v>0</v>
+      </c>
       <c r="AP15" s="75"/>
       <c r="AQ15" s="75"/>
       <c r="AR15" s="75"/>
@@ -24655,9 +26014,14 @@
       <c r="BE15" s="76"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="57" t="s">
+        <v>91</v>
+      </c>
       <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
+      <c r="C16" s="90">
+        <f t="shared" si="1"/>
+        <v>4.2600822207647537</v>
+      </c>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
       <c r="F16" s="74"/>
@@ -24666,7 +26030,10 @@
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
+      <c r="L16" s="90">
+        <f t="shared" si="2"/>
+        <v>4.2600822207647537</v>
+      </c>
       <c r="M16" s="74"/>
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
@@ -24686,16 +26053,28 @@
       <c r="AC16" s="75"/>
       <c r="AD16" s="75"/>
       <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="75"/>
+      <c r="AF16" s="90">
+        <f t="shared" si="3"/>
+        <v>4.2600822207647537</v>
+      </c>
+      <c r="AG16" s="74"/>
       <c r="AH16" s="75"/>
       <c r="AI16" s="75"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="75"/>
+      <c r="AJ16" s="95">
+        <f t="shared" si="4"/>
+        <v>17.899505129263673</v>
+      </c>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="95">
+        <f t="shared" si="5"/>
+        <v>75.177921542907427</v>
+      </c>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="95">
+        <f t="shared" si="6"/>
+        <v>107.39703077558204</v>
+      </c>
+      <c r="AO16" s="100"/>
       <c r="AP16" s="75"/>
       <c r="AQ16" s="75"/>
       <c r="AR16" s="75"/>
@@ -24714,10 +26093,18 @@
       <c r="BE16" s="76"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="57" t="s">
+        <v>92</v>
+      </c>
       <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="90">
+        <f t="shared" si="1"/>
+        <v>3784.59385604311</v>
+      </c>
+      <c r="D17" s="90">
+        <f>[6]PRODELEC!$N$619+[6]PRODELEC!$N$1188</f>
+        <v>3074.4563903529388</v>
+      </c>
       <c r="E17" s="74"/>
       <c r="F17" s="74"/>
       <c r="G17" s="74"/>
@@ -24725,8 +26112,14 @@
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
+      <c r="L17" s="90">
+        <f t="shared" si="2"/>
+        <v>4048.7068799999929</v>
+      </c>
+      <c r="M17" s="90">
+        <f>[6]PRODELEC!$KG$619+[6]PRODELEC!$KG$1188</f>
+        <v>2925.4843887459215</v>
+      </c>
       <c r="N17" s="74"/>
       <c r="O17" s="74"/>
       <c r="P17" s="74"/>
@@ -24745,16 +26138,40 @@
       <c r="AC17" s="75"/>
       <c r="AD17" s="75"/>
       <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
+      <c r="AF17" s="90">
+        <f t="shared" si="3"/>
+        <v>4847.0857169590727</v>
+      </c>
+      <c r="AG17" s="90">
+        <f>[6]PRODELEC!$LA$619+[6]PRODELEC!$LA$1188</f>
+        <v>4138.7290918005183</v>
+      </c>
       <c r="AH17" s="75"/>
       <c r="AI17" s="75"/>
-      <c r="AJ17" s="77"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="74"/>
+      <c r="AJ17" s="95">
+        <f t="shared" si="4"/>
+        <v>16770.854868866722</v>
+      </c>
+      <c r="AK17" s="98">
+        <f>SUM([6]PRODELEC!$JX$619:$KB$619)+SUM([6]PRODELEC!$JX$1188:$KB$1188)</f>
+        <v>20459.900081406297</v>
+      </c>
+      <c r="AL17" s="95">
+        <f t="shared" si="5"/>
+        <v>78068.943269493291</v>
+      </c>
+      <c r="AM17" s="98">
+        <f>SUM([6]PRODELEC!$KH$619:$LA$619)+SUM([6]PRODELEC!$KH$1188:$LA$1188)</f>
+        <v>68629.122621652888</v>
+      </c>
+      <c r="AN17" s="95">
+        <f t="shared" si="6"/>
+        <v>107772.91629442244</v>
+      </c>
+      <c r="AO17" s="98">
+        <f>SUM([6]PRODELEC!$JX$619:$LA$619)+SUM([6]PRODELEC!$JX$1188:$LA$1188)</f>
+        <v>104689.44975734083</v>
+      </c>
       <c r="AP17" s="74"/>
       <c r="AQ17" s="74"/>
       <c r="AR17" s="74"/>
@@ -24773,10 +26190,18 @@
       <c r="BE17" s="78"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="A18" s="57" t="s">
+        <v>93</v>
+      </c>
       <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="90">
+        <f t="shared" si="1"/>
+        <v>2032.2964148225478</v>
+      </c>
+      <c r="D18" s="90">
+        <f>SUM([6]PRODELEC!$N$1734:$N$1736)</f>
+        <v>2636.463615903976</v>
+      </c>
       <c r="E18" s="74"/>
       <c r="F18" s="74"/>
       <c r="G18" s="74"/>
@@ -24784,8 +26209,14 @@
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
+      <c r="L18" s="90">
+        <f t="shared" si="2"/>
+        <v>1518.3561477012531</v>
+      </c>
+      <c r="M18" s="90">
+        <f>[6]PRODELEC!$KG$1796</f>
+        <v>1893.3198547847046</v>
+      </c>
       <c r="N18" s="74"/>
       <c r="O18" s="74"/>
       <c r="P18" s="74"/>
@@ -24804,16 +26235,40 @@
       <c r="AC18" s="75"/>
       <c r="AD18" s="75"/>
       <c r="AE18" s="75"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="75"/>
+      <c r="AF18" s="90">
+        <f t="shared" si="3"/>
+        <v>2034.1807321515639</v>
+      </c>
+      <c r="AG18" s="90">
+        <f>[6]PRODELEC!$LA$1796</f>
+        <v>3626.9615298810877</v>
+      </c>
       <c r="AH18" s="75"/>
       <c r="AI18" s="75"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="74"/>
+      <c r="AJ18" s="95">
+        <f t="shared" si="4"/>
+        <v>9080.7352472660223</v>
+      </c>
+      <c r="AK18" s="98">
+        <f>SUM([6]PRODELEC!$JX$1796:$KB$1796)</f>
+        <v>12669.159878414404</v>
+      </c>
+      <c r="AL18" s="95">
+        <f t="shared" si="5"/>
+        <v>44244.581935071845</v>
+      </c>
+      <c r="AM18" s="98">
+        <f>SUM([6]PRODELEC!$KH$1796:$LA$1796)</f>
+        <v>64525.217657442197</v>
+      </c>
+      <c r="AN18" s="95">
+        <f t="shared" si="6"/>
+        <v>58204.391607196783</v>
+      </c>
+      <c r="AO18" s="98">
+        <f>SUM([6]PRODELEC!$JX$1796:$LA$1796)</f>
+        <v>87551.579056891293</v>
+      </c>
       <c r="AP18" s="74"/>
       <c r="AQ18" s="74"/>
       <c r="AR18" s="74"/>
@@ -24832,10 +26287,18 @@
       <c r="BE18" s="78"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
+      <c r="A19" s="57" t="s">
+        <v>94</v>
+      </c>
       <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="90">
+        <f t="shared" si="1"/>
+        <v>1273.0888434995527</v>
+      </c>
+      <c r="D19" s="82">
+        <f>[6]PRODELEC!$N$247</f>
+        <v>740.67857917962817</v>
+      </c>
       <c r="E19" s="74"/>
       <c r="F19" s="74"/>
       <c r="G19" s="74"/>
@@ -24843,8 +26306,14 @@
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
+      <c r="L19" s="90">
+        <f t="shared" si="2"/>
+        <v>1393.5880108192237</v>
+      </c>
+      <c r="M19" s="82">
+        <f>[6]PRODELEC!$KG$247</f>
+        <v>0</v>
+      </c>
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
       <c r="P19" s="74"/>
@@ -24863,16 +26332,40 @@
       <c r="AC19" s="75"/>
       <c r="AD19" s="75"/>
       <c r="AE19" s="75"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="75"/>
+      <c r="AF19" s="90">
+        <f t="shared" si="3"/>
+        <v>1022.7783089343081</v>
+      </c>
+      <c r="AG19" s="82">
+        <f>[6]PRODELEC!$LA$247</f>
+        <v>0</v>
+      </c>
       <c r="AH19" s="75"/>
       <c r="AI19" s="75"/>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="74"/>
+      <c r="AJ19" s="95">
+        <f t="shared" si="4"/>
+        <v>5366.853881905794</v>
+      </c>
+      <c r="AK19" s="98">
+        <f>SUM([6]PRODELEC!$JX$247:$KB$247)</f>
+        <v>262.5320704580422</v>
+      </c>
+      <c r="AL19" s="95">
+        <f t="shared" si="5"/>
+        <v>18897.831627286934</v>
+      </c>
+      <c r="AM19" s="98">
+        <f>SUM([6]PRODELEC!$KH$247:$LA$247)</f>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="95">
+        <f t="shared" si="6"/>
+        <v>28911.889131462296</v>
+      </c>
+      <c r="AO19" s="98">
+        <f>SUM([6]PRODELEC!$JX$247:$LA$247)</f>
+        <v>262.5320704580422</v>
+      </c>
       <c r="AP19" s="74"/>
       <c r="AQ19" s="74"/>
       <c r="AR19" s="74"/>
@@ -24891,10 +26384,18 @@
       <c r="BE19" s="78"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
+      <c r="A20" s="57" t="s">
+        <v>95</v>
+      </c>
       <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="90">
+        <f t="shared" si="1"/>
+        <v>1833.7977444003209</v>
+      </c>
+      <c r="D20" s="90">
+        <f>[6]PRODELEC!$N$2163</f>
+        <v>172.81430065449953</v>
+      </c>
       <c r="E20" s="74"/>
       <c r="F20" s="74"/>
       <c r="G20" s="74"/>
@@ -24902,8 +26403,14 @@
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
+      <c r="L20" s="90">
+        <f t="shared" si="2"/>
+        <v>1433.703672739869</v>
+      </c>
+      <c r="M20" s="90">
+        <f>[6]PRODELEC!$KG$2163</f>
+        <v>0</v>
+      </c>
       <c r="N20" s="74"/>
       <c r="O20" s="74"/>
       <c r="P20" s="74"/>
@@ -24922,16 +26429,40 @@
       <c r="AC20" s="75"/>
       <c r="AD20" s="75"/>
       <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
+      <c r="AF20" s="90">
+        <f t="shared" si="3"/>
+        <v>1825.1273526380708</v>
+      </c>
+      <c r="AG20" s="90">
+        <f>[6]PRODELEC!$LA$2163</f>
+        <v>0</v>
+      </c>
       <c r="AH20" s="75"/>
       <c r="AI20" s="75"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="75"/>
+      <c r="AJ20" s="101">
+        <f t="shared" si="4"/>
+        <v>8322.8193354039704</v>
+      </c>
+      <c r="AK20" s="102">
+        <f>SUM([6]PRODELEC!$JX$2163:$KB$2163)</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="101">
+        <f t="shared" si="5"/>
+        <v>30901.715056646273</v>
+      </c>
+      <c r="AM20" s="102">
+        <f>SUM([6]PRODELEC!$KH$2163:$LA$2163)</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="101">
+        <f t="shared" si="6"/>
+        <v>43797.678614483557</v>
+      </c>
+      <c r="AO20" s="102">
+        <f>SUM([6]PRODELEC!$JX$2163:$LA$2163)</f>
+        <v>0</v>
+      </c>
       <c r="AP20" s="75"/>
       <c r="AQ20" s="75"/>
       <c r="AR20" s="75"/>
@@ -24949,6 +26480,35 @@
       <c r="BD20" s="78"/>
       <c r="BE20" s="78"/>
     </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AI21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ21" s="69">
+        <f>SUM(AJ13:AJ20)</f>
+        <v>73503.757272690273</v>
+      </c>
+      <c r="AK21" s="69">
+        <f t="shared" ref="AK21:AO21" si="7">SUM(AK13:AK20)</f>
+        <v>54631.177496816257</v>
+      </c>
+      <c r="AL21" s="69">
+        <f t="shared" si="7"/>
+        <v>225184.31181213577</v>
+      </c>
+      <c r="AM21" s="69">
+        <f t="shared" si="7"/>
+        <v>169682.10000892624</v>
+      </c>
+      <c r="AN21" s="69">
+        <f t="shared" si="7"/>
+        <v>340444.75411374593</v>
+      </c>
+      <c r="AO21" s="69">
+        <f t="shared" si="7"/>
+        <v>274167.35017861985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
